--- a/Módulos/008_Projecto_final_TODO/Projetos_isep.xlsx
+++ b/Módulos/008_Projecto_final_TODO/Projetos_isep.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuísEncerrabodes\Documents\GitHub\uControllers\Módulos\008_Projecto_final_TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE1B51-65F3-49E8-BC0A-5E4F3A2936EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008CFDB-3CF7-4B7D-93A7-99C64D9F12A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Material" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Projecto</t>
   </si>
@@ -89,14 +90,46 @@
   </si>
   <si>
     <t>Classificação max (10) COMM</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>XMC4200</t>
+  </si>
+  <si>
+    <t>Acecel Click</t>
+  </si>
+  <si>
+    <t>CAN Click</t>
+  </si>
+  <si>
+    <t>NFC Click</t>
+  </si>
+  <si>
+    <t>RS232 Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLE Click </t>
+  </si>
+  <si>
+    <t>Disponível</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +153,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -680,17 +730,113 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC712E3F-873B-4B48-8246-77CC31E6E49A}">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>